--- a/cases/goodhostpital2021/指标填报表.xlsx
+++ b/cases/goodhostpital2021/指标填报表.xlsx
@@ -4,7 +4,24 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="医院" sheetId="1" r:id="rId1"/>
-    <sheet name="科室" sheetId="2" r:id="rId2"/>
+    <sheet name="普外科" sheetId="2" r:id="rId2"/>
+    <sheet name="心胸外科" sheetId="3" r:id="rId3"/>
+    <sheet name="泌尿外科" sheetId="4" r:id="rId4"/>
+    <sheet name="神经外科" sheetId="5" r:id="rId5"/>
+    <sheet name="妇产科" sheetId="6" r:id="rId6"/>
+    <sheet name="儿外科" sheetId="7" r:id="rId7"/>
+    <sheet name="儿内科" sheetId="8" r:id="rId8"/>
+    <sheet name="内分泌科" sheetId="9" r:id="rId9"/>
+    <sheet name="老年医学科" sheetId="10" r:id="rId10"/>
+    <sheet name="神经内科" sheetId="11" r:id="rId11"/>
+    <sheet name="心血管内科" sheetId="12" r:id="rId12"/>
+    <sheet name="呼吸内科" sheetId="13" r:id="rId13"/>
+    <sheet name="消化内科" sheetId="14" r:id="rId14"/>
+    <sheet name="肾内科" sheetId="15" r:id="rId15"/>
+    <sheet name="重症医学科" sheetId="16" r:id="rId16"/>
+    <sheet name="感染科" sheetId="17" r:id="rId17"/>
+    <sheet name="肝病科" sheetId="18" r:id="rId18"/>
+    <sheet name="康复医学科" sheetId="19" r:id="rId19"/>
   </sheets>
 </workbook>
 </file>
@@ -376,17 +393,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" customWidth="1" width="24"/>
+    <col min="1" max="1" customWidth="1" width="23"/>
     <col min="2" max="2" customWidth="1" width="9"/>
-    <col min="3" max="3" customWidth="1" width="23"/>
+    <col min="3" max="3" customWidth="1" width="10"/>
     <col min="4" max="4" customWidth="1" width="10"/>
     <col min="5" max="5" customWidth="1" width="10"/>
-    <col min="6" max="6" customWidth="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -394,18 +410,15 @@
         <v>数据名</v>
       </c>
       <c r="B1" t="str">
-        <v>上级指标</v>
+        <v>计量单位</v>
       </c>
       <c r="C1" t="str">
-        <v>计量单位</v>
+        <v>Y2020</v>
       </c>
       <c r="D1" t="str">
-        <v>Y2020</v>
+        <v>Y2019</v>
       </c>
       <c r="E1" t="str">
-        <v>Y2019</v>
-      </c>
-      <c r="F1" t="str">
         <v>Y2018</v>
       </c>
     </row>
@@ -414,9 +427,6 @@
         <v>中医医师占比</v>
       </c>
       <c r="B2" t="str">
-        <v>人员结构</v>
-      </c>
-      <c r="C2" t="str">
         <v>百分比（%）</v>
       </c>
     </row>
@@ -425,531 +435,4226 @@
         <v>儿科医师占比</v>
       </c>
       <c r="B3" t="str">
-        <v>人员结构</v>
-      </c>
-      <c r="C3" t="str">
         <v>百分比（%）</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>医护比</v>
+        <v>医师人数</v>
       </c>
       <c r="B4" t="str">
-        <v>人员结构</v>
-      </c>
-      <c r="C4" t="str">
-        <v>比值（1:X）</v>
+        <v>人</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>病理医师占比</v>
+        <v>医护比</v>
       </c>
       <c r="B5" t="str">
-        <v>人员结构</v>
-      </c>
-      <c r="C5" t="str">
-        <v>百分比（%）</v>
+        <v>比值（1:X）</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>重症医师占比</v>
+        <v>医院感染管理专职人员数与开放床位数比</v>
       </c>
       <c r="B6" t="str">
-        <v>人员结构</v>
-      </c>
-      <c r="C6" t="str">
         <v>百分比（%）</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>麻醉医师占比</v>
+        <v>护士人数</v>
       </c>
       <c r="B7" t="str">
-        <v>人员结构</v>
-      </c>
-      <c r="C7" t="str">
-        <v>百分比（%）</v>
+        <v>人</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>医院住院医师首次参加医师资格考试通过率</v>
+        <v>病理医师占比</v>
       </c>
       <c r="B8" t="str">
-        <v>人才培养</v>
-      </c>
-      <c r="C8" t="str">
         <v>百分比（%）</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>医院承担培养医学人才的工作成效</v>
+        <v>重症医师占比</v>
       </c>
       <c r="B9" t="str">
-        <v>人才培养</v>
-      </c>
-      <c r="C9" t="str">
-        <v>百分比（%）、人、篇、比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>医院接受其他医院进修并返回原医院独立工作人数占比</v>
+        <v>麻醉医师占比</v>
       </c>
       <c r="B10" t="str">
-        <v>人才培养</v>
-      </c>
-      <c r="C10" t="str">
         <v>百分比（%）</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>下转患者人次数</v>
+        <v>医院住院医师首次参加医师资格考试通过率</v>
       </c>
       <c r="B11" t="str">
-        <v>功能定位</v>
-      </c>
-      <c r="C11" t="str">
-        <v>人次</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>住院下转患者人次数</v>
+        <v>医院接受其他医院进修并返回原医院独立工作人数占比</v>
       </c>
       <c r="B12" t="str">
-        <v>功能定位</v>
-      </c>
-      <c r="C12" t="str">
-        <v>人次</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>出院患者四级手术比例</v>
+        <v>下转患者人次数</v>
       </c>
       <c r="B13" t="str">
-        <v>功能定位</v>
-      </c>
-      <c r="C13" t="str">
-        <v>百分比（%）</v>
+        <v>人次</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>出院患者微创手术占比</v>
+        <v>住院下转患者人次数</v>
       </c>
       <c r="B14" t="str">
-        <v>功能定位</v>
-      </c>
-      <c r="C14" t="str">
-        <v>百分比（%）</v>
+        <v>人次</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>出院患者手术占比</v>
+        <v>出院患者四级手术比例</v>
       </c>
       <c r="B15" t="str">
-        <v>功能定位</v>
-      </c>
-      <c r="C15" t="str">
         <v>百分比（%）</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>门急诊下转患者人次数</v>
+        <v>出院患者微创手术占比</v>
       </c>
       <c r="B16" t="str">
-        <v>功能定位</v>
-      </c>
-      <c r="C16" t="str">
-        <v>人次</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>CMI值</v>
+        <v>出院患者手术占比</v>
       </c>
       <c r="B17" t="str">
-        <v>医保价值</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>DRGs组数</v>
+        <v>门急诊下转患者人次数</v>
       </c>
       <c r="B18" t="str">
-        <v>医保价值</v>
+        <v>人次</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>住院患者基本药物使用率</v>
-      </c>
-      <c r="B19" t="str">
-        <v>合理用药</v>
-      </c>
-      <c r="C19" t="str">
-        <v>百分比（%）</v>
+        <v>CMI值</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>国家组织药品集中采购中标药品金额占比</v>
-      </c>
-      <c r="B20" t="str">
-        <v>合理用药</v>
-      </c>
-      <c r="C20" t="str">
-        <v>百分比（%）</v>
+        <v>DRGs组数</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>基本药物采购品种数占比</v>
+        <v>住院患者基本药物使用率</v>
       </c>
       <c r="B21" t="str">
-        <v>合理用药</v>
-      </c>
-      <c r="C21" t="str">
         <v>百分比（%）</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>抗菌药物使用强度DDDs</v>
+        <v>国家组织药品集中采购中标药品金额占比</v>
       </c>
       <c r="B22" t="str">
-        <v>合理用药</v>
-      </c>
-      <c r="C22" t="str">
-        <v>DDD</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>点评处方占处方总数的比例</v>
+        <v>基本药物采购品种数占比</v>
       </c>
       <c r="B23" t="str">
-        <v>合理用药</v>
-      </c>
-      <c r="C23" t="str">
         <v>百分比（%）</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>重点监控高值医用耗材收入占比</v>
+        <v>抗菌药物使用强度DDDs</v>
       </c>
       <c r="B24" t="str">
-        <v>合理用药</v>
-      </c>
-      <c r="C24" t="str">
-        <v>百分比（%）</v>
+        <v>DDD</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>门诊患者基本药物处方占比</v>
+        <v>点评处方占处方总数的比例</v>
       </c>
       <c r="B25" t="str">
-        <v>合理用药</v>
-      </c>
-      <c r="C25" t="str">
         <v>百分比（%）</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>博士研究生导师占比</v>
+        <v>重点监控高值医用耗材收入占比</v>
       </c>
       <c r="B26" t="str">
-        <v>地位影响</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>外省住院患者占比</v>
+        <v>门诊患者基本药物处方占比</v>
       </c>
       <c r="B27" t="str">
-        <v>地位影响</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>硕士研究生导师占比</v>
+        <v>博士研究生导师占比</v>
       </c>
       <c r="B28" t="str">
-        <v>地位影响</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>非医嘱离院率</v>
+        <v>外省住院患者占比</v>
       </c>
       <c r="B29" t="str">
-        <v>地位影响</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>每百名卫生技术人员科研成果转化金额</v>
+        <v>硕士研究生导师占比</v>
       </c>
       <c r="B30" t="str">
-        <v>学科建设</v>
-      </c>
-      <c r="C30" t="str">
-        <v>元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>每百名卫生技术人员科研项目经费</v>
+        <v>非医嘱离院率</v>
       </c>
       <c r="B31" t="str">
-        <v>学科建设</v>
-      </c>
-      <c r="C31" t="str">
-        <v>元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>万元收入能耗占比</v>
+        <v>每百名卫生技术人员科研成果转化金额</v>
       </c>
       <c r="B32" t="str">
-        <v>收支结构</v>
-      </c>
-      <c r="C32" t="str">
-        <v>吨标煤/万元</v>
+        <v>元</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>人员支出占业务支出比重</v>
+        <v>每百名卫生技术人员科研项目经费</v>
       </c>
       <c r="B33" t="str">
-        <v>收支结构</v>
-      </c>
-      <c r="C33" t="str">
-        <v>百分比（%）</v>
+        <v>元</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>医疗服务收入占医疗收入比例</v>
+        <v>万元收入能耗占比</v>
       </c>
       <c r="B34" t="str">
-        <v>收支结构</v>
-      </c>
-      <c r="C34" t="str">
-        <v>百分比（%）</v>
+        <v>吨标煤/万元</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>收支结余</v>
+        <v>人员支出占业务支出比重</v>
       </c>
       <c r="B35" t="str">
-        <v>收支结构</v>
-      </c>
-      <c r="C35" t="str">
         <v>百分比（%）</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>资产负债率</v>
+        <v>医疗收入</v>
       </c>
       <c r="B36" t="str">
-        <v>收支结构</v>
-      </c>
-      <c r="C36" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>平均住院日</v>
+        <v>医疗服务收入</v>
       </c>
       <c r="B37" t="str">
-        <v>服务流程</v>
-      </c>
-      <c r="C37" t="str">
-        <v>天</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>电子病历应用功能水平分级</v>
+        <v>医疗服务收入占医疗收入比例</v>
       </c>
       <c r="B38" t="str">
-        <v>服务流程</v>
-      </c>
-      <c r="C38" t="str">
-        <v>级别</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>门诊患者平均预约诊疗率</v>
+        <v>收支结余</v>
       </c>
       <c r="B39" t="str">
-        <v>服务流程</v>
-      </c>
-      <c r="C39" t="str">
         <v>百分比（%）</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>门诊患者预约后平均等待时间</v>
+        <v>有效收入</v>
       </c>
       <c r="B40" t="str">
-        <v>服务流程</v>
-      </c>
-      <c r="C40" t="str">
-        <v>分钟</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>I类切口手术部位感染率</v>
+        <v>资产负债率</v>
       </c>
       <c r="B41" t="str">
-        <v>质量安全</v>
-      </c>
-      <c r="C41" t="str">
         <v>百分比（%）</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>优质护理服务病房覆盖率</v>
+        <v>平均住院日</v>
       </c>
       <c r="B42" t="str">
-        <v>质量安全</v>
-      </c>
-      <c r="C42" t="str">
-        <v>百分比（%）</v>
+        <v>天</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>低风险组病例死亡率</v>
+        <v>电子病历应用功能水平分级</v>
       </c>
       <c r="B43" t="str">
-        <v>质量安全</v>
-      </c>
-      <c r="C43" t="str">
-        <v>百分比（%）</v>
+        <v>级别</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>手术患者并发症发生率</v>
+        <v>门诊患者平均预约诊疗率</v>
       </c>
       <c r="B44" t="str">
-        <v>质量安全</v>
-      </c>
-      <c r="C44" t="str">
         <v>百分比（%）</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>通过国家室间质量评价的临床检验项目数</v>
+        <v>门诊患者预约后平均等待时间</v>
       </c>
       <c r="B45" t="str">
-        <v>质量安全</v>
-      </c>
-      <c r="C45" t="str">
-        <v>百分比（%）</v>
+        <v>分钟</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>住院次均药品费用增幅</v>
+        <v>I类切口手术部位感染率</v>
       </c>
       <c r="B46" t="str">
-        <v>费用控制</v>
-      </c>
-      <c r="C46" t="str">
         <v>百分比（%）</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>住院次均费用增幅</v>
+        <v>优质护理服务病房覆盖率</v>
       </c>
       <c r="B47" t="str">
-        <v>费用控制</v>
-      </c>
-      <c r="C47" t="str">
         <v>百分比（%）</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>医疗收入增幅</v>
+        <v>低风险组病例死亡率</v>
       </c>
       <c r="B48" t="str">
-        <v>费用控制</v>
-      </c>
-      <c r="C48" t="str">
         <v>百分比（%）</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>门诊次均药品费用增幅</v>
+        <v>手术患者并发症发生率</v>
       </c>
       <c r="B49" t="str">
-        <v>费用控制</v>
-      </c>
-      <c r="C49" t="str">
         <v>百分比（%）</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
+        <v>通过国家室间质量评价的临床检验项目数</v>
+      </c>
+      <c r="B50" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>住院次均药品费用增幅</v>
+      </c>
+      <c r="B51" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>住院次均费用增幅</v>
+      </c>
+      <c r="B52" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>医疗收入增幅</v>
+      </c>
+      <c r="B53" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>门诊次均药品费用增幅</v>
+      </c>
+      <c r="B54" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
         <v>门诊次均费用增幅</v>
       </c>
-      <c r="B50" t="str">
-        <v>费用控制</v>
-      </c>
-      <c r="C50" t="str">
-        <v>百分比（%）</v>
+      <c r="B55" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B56" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B57" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B58" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B59" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B60" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>核定床位数</v>
+      </c>
+      <c r="B61" t="str">
+        <v>张</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F50"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E61"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" customWidth="1" width="15"/>
+    <col min="2" max="2" customWidth="1" width="9"/>
+    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="4" max="4" customWidth="1" width="10"/>
+    <col min="5" max="5" customWidth="1" width="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>数据名</v>
+      </c>
+      <c r="B1" t="str">
+        <v>计量单位</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Y2020</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Y2019</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Y2018</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>医师人数</v>
+      </c>
+      <c r="B2" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>医护比</v>
+      </c>
+      <c r="B3" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>护士人数</v>
+      </c>
+      <c r="B4" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>出院患者四级手术比例</v>
+      </c>
+      <c r="B5" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>出院患者微创手术占比</v>
+      </c>
+      <c r="B6" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>出院患者手术占比</v>
+      </c>
+      <c r="B7" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>CMI值</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>DRGs组数</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>住院患者基本药物使用率</v>
+      </c>
+      <c r="B10" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>抗菌药物使用强度DDDs</v>
+      </c>
+      <c r="B11" t="str">
+        <v>DDD</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>重点监控高值医用耗材收入占比</v>
+      </c>
+      <c r="B12" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>门诊患者基本药物处方占比</v>
+      </c>
+      <c r="B13" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>博士研究生导师占比</v>
+      </c>
+      <c r="B14" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>外省住院患者占比</v>
+      </c>
+      <c r="B15" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>是否为区卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>是否为区教育局或科技局重点学科或实验室</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>是否为市卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>硕士研究生导师占比</v>
+      </c>
+      <c r="B22" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>非医嘱离院率</v>
+      </c>
+      <c r="B23" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>每百名卫生技术人员科研成果转化金额</v>
+      </c>
+      <c r="B24" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>每百名卫生技术人员科研项目经费</v>
+      </c>
+      <c r="B25" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>万元收入能耗占比</v>
+      </c>
+      <c r="B26" t="str">
+        <v>吨标煤/万元</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>医疗收入</v>
+      </c>
+      <c r="B27" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>医疗服务收入</v>
+      </c>
+      <c r="B28" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>医疗服务收入占医疗收入比例</v>
+      </c>
+      <c r="B29" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>收支结余</v>
+      </c>
+      <c r="B30" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>有效收入</v>
+      </c>
+      <c r="B31" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>平均住院日</v>
+      </c>
+      <c r="B32" t="str">
+        <v>天</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>I类切口手术部位感染率</v>
+      </c>
+      <c r="B33" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>低风险组病例死亡率</v>
+      </c>
+      <c r="B34" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>手术患者并发症发生率</v>
+      </c>
+      <c r="B35" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>住院次均药品费用增幅</v>
+      </c>
+      <c r="B36" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>住院次均费用增幅</v>
+      </c>
+      <c r="B37" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>医疗收入增幅</v>
+      </c>
+      <c r="B38" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>门诊次均药品费用增幅</v>
+      </c>
+      <c r="B39" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B40" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B41" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B42" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B43" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B44" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B45" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>核定床位数</v>
+      </c>
+      <c r="B46" t="str">
+        <v>张</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" customWidth="1" width="15"/>
+    <col min="2" max="2" customWidth="1" width="9"/>
+    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="4" max="4" customWidth="1" width="10"/>
+    <col min="5" max="5" customWidth="1" width="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>数据名</v>
+      </c>
+      <c r="B1" t="str">
+        <v>计量单位</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Y2020</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Y2019</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Y2018</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>医师人数</v>
+      </c>
+      <c r="B2" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>医护比</v>
+      </c>
+      <c r="B3" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>护士人数</v>
+      </c>
+      <c r="B4" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>出院患者四级手术比例</v>
+      </c>
+      <c r="B5" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>出院患者微创手术占比</v>
+      </c>
+      <c r="B6" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>出院患者手术占比</v>
+      </c>
+      <c r="B7" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>CMI值</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>DRGs组数</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>住院患者基本药物使用率</v>
+      </c>
+      <c r="B10" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>抗菌药物使用强度DDDs</v>
+      </c>
+      <c r="B11" t="str">
+        <v>DDD</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>重点监控高值医用耗材收入占比</v>
+      </c>
+      <c r="B12" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>门诊患者基本药物处方占比</v>
+      </c>
+      <c r="B13" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>博士研究生导师占比</v>
+      </c>
+      <c r="B14" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>外省住院患者占比</v>
+      </c>
+      <c r="B15" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>是否为区卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>是否为区教育局或科技局重点学科或实验室</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>是否为市卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>硕士研究生导师占比</v>
+      </c>
+      <c r="B22" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>非医嘱离院率</v>
+      </c>
+      <c r="B23" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>每百名卫生技术人员科研成果转化金额</v>
+      </c>
+      <c r="B24" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>每百名卫生技术人员科研项目经费</v>
+      </c>
+      <c r="B25" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>万元收入能耗占比</v>
+      </c>
+      <c r="B26" t="str">
+        <v>吨标煤/万元</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>医疗收入</v>
+      </c>
+      <c r="B27" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>医疗服务收入</v>
+      </c>
+      <c r="B28" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>医疗服务收入占医疗收入比例</v>
+      </c>
+      <c r="B29" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>收支结余</v>
+      </c>
+      <c r="B30" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>有效收入</v>
+      </c>
+      <c r="B31" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>平均住院日</v>
+      </c>
+      <c r="B32" t="str">
+        <v>天</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>I类切口手术部位感染率</v>
+      </c>
+      <c r="B33" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>低风险组病例死亡率</v>
+      </c>
+      <c r="B34" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>手术患者并发症发生率</v>
+      </c>
+      <c r="B35" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>住院次均药品费用增幅</v>
+      </c>
+      <c r="B36" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>住院次均费用增幅</v>
+      </c>
+      <c r="B37" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>医疗收入增幅</v>
+      </c>
+      <c r="B38" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>门诊次均药品费用增幅</v>
+      </c>
+      <c r="B39" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B40" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B41" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B42" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B43" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B44" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B45" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>核定床位数</v>
+      </c>
+      <c r="B46" t="str">
+        <v>张</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" customWidth="1" width="15"/>
+    <col min="2" max="2" customWidth="1" width="9"/>
+    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="4" max="4" customWidth="1" width="10"/>
+    <col min="5" max="5" customWidth="1" width="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>数据名</v>
+      </c>
+      <c r="B1" t="str">
+        <v>计量单位</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Y2020</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Y2019</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Y2018</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>医师人数</v>
+      </c>
+      <c r="B2" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>医护比</v>
+      </c>
+      <c r="B3" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>护士人数</v>
+      </c>
+      <c r="B4" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>出院患者四级手术比例</v>
+      </c>
+      <c r="B5" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>出院患者微创手术占比</v>
+      </c>
+      <c r="B6" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>出院患者手术占比</v>
+      </c>
+      <c r="B7" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>CMI值</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>DRGs组数</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>住院患者基本药物使用率</v>
+      </c>
+      <c r="B10" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>抗菌药物使用强度DDDs</v>
+      </c>
+      <c r="B11" t="str">
+        <v>DDD</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>重点监控高值医用耗材收入占比</v>
+      </c>
+      <c r="B12" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>门诊患者基本药物处方占比</v>
+      </c>
+      <c r="B13" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>博士研究生导师占比</v>
+      </c>
+      <c r="B14" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>外省住院患者占比</v>
+      </c>
+      <c r="B15" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>是否为区卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>是否为区教育局或科技局重点学科或实验室</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>是否为市卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>硕士研究生导师占比</v>
+      </c>
+      <c r="B22" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>非医嘱离院率</v>
+      </c>
+      <c r="B23" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>每百名卫生技术人员科研成果转化金额</v>
+      </c>
+      <c r="B24" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>每百名卫生技术人员科研项目经费</v>
+      </c>
+      <c r="B25" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>万元收入能耗占比</v>
+      </c>
+      <c r="B26" t="str">
+        <v>吨标煤/万元</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>医疗收入</v>
+      </c>
+      <c r="B27" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>医疗服务收入</v>
+      </c>
+      <c r="B28" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>医疗服务收入占医疗收入比例</v>
+      </c>
+      <c r="B29" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>收支结余</v>
+      </c>
+      <c r="B30" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>有效收入</v>
+      </c>
+      <c r="B31" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>平均住院日</v>
+      </c>
+      <c r="B32" t="str">
+        <v>天</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>I类切口手术部位感染率</v>
+      </c>
+      <c r="B33" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>低风险组病例死亡率</v>
+      </c>
+      <c r="B34" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>手术患者并发症发生率</v>
+      </c>
+      <c r="B35" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>住院次均药品费用增幅</v>
+      </c>
+      <c r="B36" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>住院次均费用增幅</v>
+      </c>
+      <c r="B37" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>医疗收入增幅</v>
+      </c>
+      <c r="B38" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>门诊次均药品费用增幅</v>
+      </c>
+      <c r="B39" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B40" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B41" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B42" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B43" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B44" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B45" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>核定床位数</v>
+      </c>
+      <c r="B46" t="str">
+        <v>张</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" customWidth="1" width="15"/>
+    <col min="2" max="2" customWidth="1" width="9"/>
+    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="4" max="4" customWidth="1" width="10"/>
+    <col min="5" max="5" customWidth="1" width="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>数据名</v>
+      </c>
+      <c r="B1" t="str">
+        <v>计量单位</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Y2020</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Y2019</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Y2018</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>医师人数</v>
+      </c>
+      <c r="B2" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>医护比</v>
+      </c>
+      <c r="B3" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>护士人数</v>
+      </c>
+      <c r="B4" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>出院患者四级手术比例</v>
+      </c>
+      <c r="B5" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>出院患者微创手术占比</v>
+      </c>
+      <c r="B6" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>出院患者手术占比</v>
+      </c>
+      <c r="B7" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>CMI值</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>DRGs组数</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>住院患者基本药物使用率</v>
+      </c>
+      <c r="B10" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>抗菌药物使用强度DDDs</v>
+      </c>
+      <c r="B11" t="str">
+        <v>DDD</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>重点监控高值医用耗材收入占比</v>
+      </c>
+      <c r="B12" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>门诊患者基本药物处方占比</v>
+      </c>
+      <c r="B13" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>博士研究生导师占比</v>
+      </c>
+      <c r="B14" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>外省住院患者占比</v>
+      </c>
+      <c r="B15" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>是否为区卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>是否为区教育局或科技局重点学科或实验室</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>是否为市卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>硕士研究生导师占比</v>
+      </c>
+      <c r="B22" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>非医嘱离院率</v>
+      </c>
+      <c r="B23" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>每百名卫生技术人员科研成果转化金额</v>
+      </c>
+      <c r="B24" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>每百名卫生技术人员科研项目经费</v>
+      </c>
+      <c r="B25" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>万元收入能耗占比</v>
+      </c>
+      <c r="B26" t="str">
+        <v>吨标煤/万元</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>医疗收入</v>
+      </c>
+      <c r="B27" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>医疗服务收入</v>
+      </c>
+      <c r="B28" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>医疗服务收入占医疗收入比例</v>
+      </c>
+      <c r="B29" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>收支结余</v>
+      </c>
+      <c r="B30" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>有效收入</v>
+      </c>
+      <c r="B31" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>平均住院日</v>
+      </c>
+      <c r="B32" t="str">
+        <v>天</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>I类切口手术部位感染率</v>
+      </c>
+      <c r="B33" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>低风险组病例死亡率</v>
+      </c>
+      <c r="B34" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>手术患者并发症发生率</v>
+      </c>
+      <c r="B35" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>住院次均药品费用增幅</v>
+      </c>
+      <c r="B36" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>住院次均费用增幅</v>
+      </c>
+      <c r="B37" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>医疗收入增幅</v>
+      </c>
+      <c r="B38" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>门诊次均药品费用增幅</v>
+      </c>
+      <c r="B39" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B40" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B41" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B42" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B43" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B44" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B45" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>核定床位数</v>
+      </c>
+      <c r="B46" t="str">
+        <v>张</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" customWidth="1" width="15"/>
+    <col min="2" max="2" customWidth="1" width="9"/>
+    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="4" max="4" customWidth="1" width="10"/>
+    <col min="5" max="5" customWidth="1" width="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>数据名</v>
+      </c>
+      <c r="B1" t="str">
+        <v>计量单位</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Y2020</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Y2019</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Y2018</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>医师人数</v>
+      </c>
+      <c r="B2" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>医护比</v>
+      </c>
+      <c r="B3" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>护士人数</v>
+      </c>
+      <c r="B4" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>出院患者四级手术比例</v>
+      </c>
+      <c r="B5" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>出院患者微创手术占比</v>
+      </c>
+      <c r="B6" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>出院患者手术占比</v>
+      </c>
+      <c r="B7" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>CMI值</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>DRGs组数</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>住院患者基本药物使用率</v>
+      </c>
+      <c r="B10" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>抗菌药物使用强度DDDs</v>
+      </c>
+      <c r="B11" t="str">
+        <v>DDD</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>重点监控高值医用耗材收入占比</v>
+      </c>
+      <c r="B12" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>门诊患者基本药物处方占比</v>
+      </c>
+      <c r="B13" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>博士研究生导师占比</v>
+      </c>
+      <c r="B14" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>外省住院患者占比</v>
+      </c>
+      <c r="B15" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>是否为区卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>是否为区教育局或科技局重点学科或实验室</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>是否为市卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>硕士研究生导师占比</v>
+      </c>
+      <c r="B22" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>非医嘱离院率</v>
+      </c>
+      <c r="B23" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>每百名卫生技术人员科研成果转化金额</v>
+      </c>
+      <c r="B24" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>每百名卫生技术人员科研项目经费</v>
+      </c>
+      <c r="B25" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>万元收入能耗占比</v>
+      </c>
+      <c r="B26" t="str">
+        <v>吨标煤/万元</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>医疗收入</v>
+      </c>
+      <c r="B27" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>医疗服务收入</v>
+      </c>
+      <c r="B28" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>医疗服务收入占医疗收入比例</v>
+      </c>
+      <c r="B29" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>收支结余</v>
+      </c>
+      <c r="B30" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>有效收入</v>
+      </c>
+      <c r="B31" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>平均住院日</v>
+      </c>
+      <c r="B32" t="str">
+        <v>天</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>I类切口手术部位感染率</v>
+      </c>
+      <c r="B33" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>低风险组病例死亡率</v>
+      </c>
+      <c r="B34" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>手术患者并发症发生率</v>
+      </c>
+      <c r="B35" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>住院次均药品费用增幅</v>
+      </c>
+      <c r="B36" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>住院次均费用增幅</v>
+      </c>
+      <c r="B37" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>医疗收入增幅</v>
+      </c>
+      <c r="B38" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>门诊次均药品费用增幅</v>
+      </c>
+      <c r="B39" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B40" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B41" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B42" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B43" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B44" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B45" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>核定床位数</v>
+      </c>
+      <c r="B46" t="str">
+        <v>张</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" customWidth="1" width="15"/>
+    <col min="2" max="2" customWidth="1" width="9"/>
+    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="4" max="4" customWidth="1" width="10"/>
+    <col min="5" max="5" customWidth="1" width="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>数据名</v>
+      </c>
+      <c r="B1" t="str">
+        <v>计量单位</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Y2020</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Y2019</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Y2018</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>医师人数</v>
+      </c>
+      <c r="B2" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>医护比</v>
+      </c>
+      <c r="B3" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>护士人数</v>
+      </c>
+      <c r="B4" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>出院患者四级手术比例</v>
+      </c>
+      <c r="B5" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>出院患者微创手术占比</v>
+      </c>
+      <c r="B6" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>出院患者手术占比</v>
+      </c>
+      <c r="B7" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>CMI值</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>DRGs组数</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>住院患者基本药物使用率</v>
+      </c>
+      <c r="B10" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>抗菌药物使用强度DDDs</v>
+      </c>
+      <c r="B11" t="str">
+        <v>DDD</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>重点监控高值医用耗材收入占比</v>
+      </c>
+      <c r="B12" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>门诊患者基本药物处方占比</v>
+      </c>
+      <c r="B13" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>博士研究生导师占比</v>
+      </c>
+      <c r="B14" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>外省住院患者占比</v>
+      </c>
+      <c r="B15" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>是否为区卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>是否为区教育局或科技局重点学科或实验室</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>是否为市卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>硕士研究生导师占比</v>
+      </c>
+      <c r="B22" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>非医嘱离院率</v>
+      </c>
+      <c r="B23" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>每百名卫生技术人员科研成果转化金额</v>
+      </c>
+      <c r="B24" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>每百名卫生技术人员科研项目经费</v>
+      </c>
+      <c r="B25" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>万元收入能耗占比</v>
+      </c>
+      <c r="B26" t="str">
+        <v>吨标煤/万元</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>医疗收入</v>
+      </c>
+      <c r="B27" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>医疗服务收入</v>
+      </c>
+      <c r="B28" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>医疗服务收入占医疗收入比例</v>
+      </c>
+      <c r="B29" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>收支结余</v>
+      </c>
+      <c r="B30" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>有效收入</v>
+      </c>
+      <c r="B31" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>平均住院日</v>
+      </c>
+      <c r="B32" t="str">
+        <v>天</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>I类切口手术部位感染率</v>
+      </c>
+      <c r="B33" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>低风险组病例死亡率</v>
+      </c>
+      <c r="B34" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>手术患者并发症发生率</v>
+      </c>
+      <c r="B35" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>住院次均药品费用增幅</v>
+      </c>
+      <c r="B36" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>住院次均费用增幅</v>
+      </c>
+      <c r="B37" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>医疗收入增幅</v>
+      </c>
+      <c r="B38" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>门诊次均药品费用增幅</v>
+      </c>
+      <c r="B39" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B40" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B41" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B42" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B43" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B44" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B45" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>核定床位数</v>
+      </c>
+      <c r="B46" t="str">
+        <v>张</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" customWidth="1" width="15"/>
+    <col min="2" max="2" customWidth="1" width="9"/>
+    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="4" max="4" customWidth="1" width="10"/>
+    <col min="5" max="5" customWidth="1" width="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>数据名</v>
+      </c>
+      <c r="B1" t="str">
+        <v>计量单位</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Y2020</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Y2019</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Y2018</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>医师人数</v>
+      </c>
+      <c r="B2" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>医护比</v>
+      </c>
+      <c r="B3" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>护士人数</v>
+      </c>
+      <c r="B4" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>出院患者四级手术比例</v>
+      </c>
+      <c r="B5" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>出院患者微创手术占比</v>
+      </c>
+      <c r="B6" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>出院患者手术占比</v>
+      </c>
+      <c r="B7" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>CMI值</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>DRGs组数</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>住院患者基本药物使用率</v>
+      </c>
+      <c r="B10" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>抗菌药物使用强度DDDs</v>
+      </c>
+      <c r="B11" t="str">
+        <v>DDD</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>重点监控高值医用耗材收入占比</v>
+      </c>
+      <c r="B12" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>门诊患者基本药物处方占比</v>
+      </c>
+      <c r="B13" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>博士研究生导师占比</v>
+      </c>
+      <c r="B14" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>外省住院患者占比</v>
+      </c>
+      <c r="B15" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>是否为区卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>是否为区教育局或科技局重点学科或实验室</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>是否为市卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>硕士研究生导师占比</v>
+      </c>
+      <c r="B22" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>非医嘱离院率</v>
+      </c>
+      <c r="B23" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>每百名卫生技术人员科研成果转化金额</v>
+      </c>
+      <c r="B24" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>每百名卫生技术人员科研项目经费</v>
+      </c>
+      <c r="B25" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>万元收入能耗占比</v>
+      </c>
+      <c r="B26" t="str">
+        <v>吨标煤/万元</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>医疗收入</v>
+      </c>
+      <c r="B27" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>医疗服务收入</v>
+      </c>
+      <c r="B28" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>医疗服务收入占医疗收入比例</v>
+      </c>
+      <c r="B29" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>收支结余</v>
+      </c>
+      <c r="B30" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>有效收入</v>
+      </c>
+      <c r="B31" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>平均住院日</v>
+      </c>
+      <c r="B32" t="str">
+        <v>天</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>I类切口手术部位感染率</v>
+      </c>
+      <c r="B33" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>低风险组病例死亡率</v>
+      </c>
+      <c r="B34" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>手术患者并发症发生率</v>
+      </c>
+      <c r="B35" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>住院次均药品费用增幅</v>
+      </c>
+      <c r="B36" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>住院次均费用增幅</v>
+      </c>
+      <c r="B37" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>医疗收入增幅</v>
+      </c>
+      <c r="B38" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>门诊次均药品费用增幅</v>
+      </c>
+      <c r="B39" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B40" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B41" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B42" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B43" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B44" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B45" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>核定床位数</v>
+      </c>
+      <c r="B46" t="str">
+        <v>张</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" customWidth="1" width="15"/>
+    <col min="2" max="2" customWidth="1" width="9"/>
+    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="4" max="4" customWidth="1" width="10"/>
+    <col min="5" max="5" customWidth="1" width="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>数据名</v>
+      </c>
+      <c r="B1" t="str">
+        <v>计量单位</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Y2020</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Y2019</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Y2018</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>医师人数</v>
+      </c>
+      <c r="B2" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>医护比</v>
+      </c>
+      <c r="B3" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>护士人数</v>
+      </c>
+      <c r="B4" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>出院患者四级手术比例</v>
+      </c>
+      <c r="B5" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>出院患者微创手术占比</v>
+      </c>
+      <c r="B6" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>出院患者手术占比</v>
+      </c>
+      <c r="B7" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>CMI值</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>DRGs组数</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>住院患者基本药物使用率</v>
+      </c>
+      <c r="B10" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>抗菌药物使用强度DDDs</v>
+      </c>
+      <c r="B11" t="str">
+        <v>DDD</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>重点监控高值医用耗材收入占比</v>
+      </c>
+      <c r="B12" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>门诊患者基本药物处方占比</v>
+      </c>
+      <c r="B13" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>博士研究生导师占比</v>
+      </c>
+      <c r="B14" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>外省住院患者占比</v>
+      </c>
+      <c r="B15" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>是否为区卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>是否为区教育局或科技局重点学科或实验室</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>是否为市卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>硕士研究生导师占比</v>
+      </c>
+      <c r="B22" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>非医嘱离院率</v>
+      </c>
+      <c r="B23" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>每百名卫生技术人员科研成果转化金额</v>
+      </c>
+      <c r="B24" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>每百名卫生技术人员科研项目经费</v>
+      </c>
+      <c r="B25" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>万元收入能耗占比</v>
+      </c>
+      <c r="B26" t="str">
+        <v>吨标煤/万元</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>医疗收入</v>
+      </c>
+      <c r="B27" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>医疗服务收入</v>
+      </c>
+      <c r="B28" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>医疗服务收入占医疗收入比例</v>
+      </c>
+      <c r="B29" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>收支结余</v>
+      </c>
+      <c r="B30" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>有效收入</v>
+      </c>
+      <c r="B31" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>平均住院日</v>
+      </c>
+      <c r="B32" t="str">
+        <v>天</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>I类切口手术部位感染率</v>
+      </c>
+      <c r="B33" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>低风险组病例死亡率</v>
+      </c>
+      <c r="B34" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>手术患者并发症发生率</v>
+      </c>
+      <c r="B35" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>住院次均药品费用增幅</v>
+      </c>
+      <c r="B36" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>住院次均费用增幅</v>
+      </c>
+      <c r="B37" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>医疗收入增幅</v>
+      </c>
+      <c r="B38" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>门诊次均药品费用增幅</v>
+      </c>
+      <c r="B39" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B40" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B41" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B42" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B43" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B44" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B45" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>核定床位数</v>
+      </c>
+      <c r="B46" t="str">
+        <v>张</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" customWidth="1" width="15"/>
+    <col min="2" max="2" customWidth="1" width="9"/>
+    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="4" max="4" customWidth="1" width="10"/>
+    <col min="5" max="5" customWidth="1" width="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>数据名</v>
+      </c>
+      <c r="B1" t="str">
+        <v>计量单位</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Y2020</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Y2019</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Y2018</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>医师人数</v>
+      </c>
+      <c r="B2" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>医护比</v>
+      </c>
+      <c r="B3" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>护士人数</v>
+      </c>
+      <c r="B4" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>出院患者四级手术比例</v>
+      </c>
+      <c r="B5" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>出院患者微创手术占比</v>
+      </c>
+      <c r="B6" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>出院患者手术占比</v>
+      </c>
+      <c r="B7" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>CMI值</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>DRGs组数</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>住院患者基本药物使用率</v>
+      </c>
+      <c r="B10" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>抗菌药物使用强度DDDs</v>
+      </c>
+      <c r="B11" t="str">
+        <v>DDD</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>重点监控高值医用耗材收入占比</v>
+      </c>
+      <c r="B12" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>门诊患者基本药物处方占比</v>
+      </c>
+      <c r="B13" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>博士研究生导师占比</v>
+      </c>
+      <c r="B14" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>外省住院患者占比</v>
+      </c>
+      <c r="B15" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>是否为区卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>是否为区教育局或科技局重点学科或实验室</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>是否为市卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>硕士研究生导师占比</v>
+      </c>
+      <c r="B22" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>非医嘱离院率</v>
+      </c>
+      <c r="B23" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>每百名卫生技术人员科研成果转化金额</v>
+      </c>
+      <c r="B24" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>每百名卫生技术人员科研项目经费</v>
+      </c>
+      <c r="B25" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>万元收入能耗占比</v>
+      </c>
+      <c r="B26" t="str">
+        <v>吨标煤/万元</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>医疗收入</v>
+      </c>
+      <c r="B27" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>医疗服务收入</v>
+      </c>
+      <c r="B28" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>医疗服务收入占医疗收入比例</v>
+      </c>
+      <c r="B29" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>收支结余</v>
+      </c>
+      <c r="B30" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>有效收入</v>
+      </c>
+      <c r="B31" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>平均住院日</v>
+      </c>
+      <c r="B32" t="str">
+        <v>天</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>I类切口手术部位感染率</v>
+      </c>
+      <c r="B33" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>低风险组病例死亡率</v>
+      </c>
+      <c r="B34" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>手术患者并发症发生率</v>
+      </c>
+      <c r="B35" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>住院次均药品费用增幅</v>
+      </c>
+      <c r="B36" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>住院次均费用增幅</v>
+      </c>
+      <c r="B37" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>医疗收入增幅</v>
+      </c>
+      <c r="B38" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>门诊次均药品费用增幅</v>
+      </c>
+      <c r="B39" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B40" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B41" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B42" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B43" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B44" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B45" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>核定床位数</v>
+      </c>
+      <c r="B46" t="str">
+        <v>张</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" customWidth="1" width="15"/>
+    <col min="2" max="2" customWidth="1" width="9"/>
+    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="4" max="4" customWidth="1" width="10"/>
+    <col min="5" max="5" customWidth="1" width="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>数据名</v>
+      </c>
+      <c r="B1" t="str">
+        <v>计量单位</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Y2020</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Y2019</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Y2018</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>医师人数</v>
+      </c>
+      <c r="B2" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>医护比</v>
+      </c>
+      <c r="B3" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>护士人数</v>
+      </c>
+      <c r="B4" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>出院患者四级手术比例</v>
+      </c>
+      <c r="B5" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>出院患者微创手术占比</v>
+      </c>
+      <c r="B6" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>出院患者手术占比</v>
+      </c>
+      <c r="B7" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>CMI值</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>DRGs组数</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>住院患者基本药物使用率</v>
+      </c>
+      <c r="B10" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>抗菌药物使用强度DDDs</v>
+      </c>
+      <c r="B11" t="str">
+        <v>DDD</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>重点监控高值医用耗材收入占比</v>
+      </c>
+      <c r="B12" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>门诊患者基本药物处方占比</v>
+      </c>
+      <c r="B13" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>博士研究生导师占比</v>
+      </c>
+      <c r="B14" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>外省住院患者占比</v>
+      </c>
+      <c r="B15" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>是否为区卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>是否为区教育局或科技局重点学科或实验室</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>是否为市卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>硕士研究生导师占比</v>
+      </c>
+      <c r="B22" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>非医嘱离院率</v>
+      </c>
+      <c r="B23" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>每百名卫生技术人员科研成果转化金额</v>
+      </c>
+      <c r="B24" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>每百名卫生技术人员科研项目经费</v>
+      </c>
+      <c r="B25" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>万元收入能耗占比</v>
+      </c>
+      <c r="B26" t="str">
+        <v>吨标煤/万元</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>医疗收入</v>
+      </c>
+      <c r="B27" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>医疗服务收入</v>
+      </c>
+      <c r="B28" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>医疗服务收入占医疗收入比例</v>
+      </c>
+      <c r="B29" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>收支结余</v>
+      </c>
+      <c r="B30" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>有效收入</v>
+      </c>
+      <c r="B31" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>平均住院日</v>
+      </c>
+      <c r="B32" t="str">
+        <v>天</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>I类切口手术部位感染率</v>
+      </c>
+      <c r="B33" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>低风险组病例死亡率</v>
+      </c>
+      <c r="B34" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>手术患者并发症发生率</v>
+      </c>
+      <c r="B35" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>住院次均药品费用增幅</v>
+      </c>
+      <c r="B36" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>住院次均费用增幅</v>
+      </c>
+      <c r="B37" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>医疗收入增幅</v>
+      </c>
+      <c r="B38" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>门诊次均药品费用增幅</v>
+      </c>
+      <c r="B39" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B40" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B41" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B42" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B43" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B44" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B45" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>核定床位数</v>
+      </c>
+      <c r="B46" t="str">
+        <v>张</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="15"/>
     <col min="2" max="2" customWidth="1" width="9"/>
-    <col min="3" max="3" customWidth="1" width="9"/>
+    <col min="3" max="3" customWidth="1" width="10"/>
     <col min="4" max="4" customWidth="1" width="10"/>
     <col min="5" max="5" customWidth="1" width="10"/>
-    <col min="6" max="6" customWidth="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -957,314 +4662,2975 @@
         <v>数据名</v>
       </c>
       <c r="B1" t="str">
-        <v>上级指标</v>
+        <v>计量单位</v>
       </c>
       <c r="C1" t="str">
-        <v>计量单位</v>
+        <v>Y2020</v>
       </c>
       <c r="D1" t="str">
-        <v>Y2020</v>
+        <v>Y2019</v>
       </c>
       <c r="E1" t="str">
-        <v>Y2019</v>
-      </c>
-      <c r="F1" t="str">
         <v>Y2018</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>医护比</v>
+        <v>医师人数</v>
       </c>
       <c r="B2" t="str">
-        <v>人员结构</v>
-      </c>
-      <c r="C2" t="str">
-        <v>比值（1:X）</v>
+        <v>人</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>出院患者四级手术比例</v>
+        <v>医护比</v>
       </c>
       <c r="B3" t="str">
-        <v>功能定位</v>
-      </c>
-      <c r="C3" t="str">
-        <v>百分比（%）</v>
+        <v>比值（1:X）</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>出院患者微创手术占比</v>
+        <v>护士人数</v>
       </c>
       <c r="B4" t="str">
-        <v>功能定位</v>
-      </c>
-      <c r="C4" t="str">
-        <v>百分比（%）</v>
+        <v>人</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>出院患者手术占比</v>
+        <v>出院患者四级手术比例</v>
       </c>
       <c r="B5" t="str">
-        <v>功能定位</v>
-      </c>
-      <c r="C5" t="str">
         <v>百分比（%）</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>CMI值</v>
+        <v>出院患者微创手术占比</v>
       </c>
       <c r="B6" t="str">
-        <v>医保价值</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>DRGs组数</v>
+        <v>出院患者手术占比</v>
       </c>
       <c r="B7" t="str">
-        <v>医保价值</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>住院患者基本药物使用率</v>
-      </c>
-      <c r="B8" t="str">
-        <v>合理用药</v>
-      </c>
-      <c r="C8" t="str">
-        <v>百分比（%）</v>
+        <v>CMI值</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>抗菌药物使用强度DDDs</v>
-      </c>
-      <c r="B9" t="str">
-        <v>合理用药</v>
-      </c>
-      <c r="C9" t="str">
-        <v>DDD</v>
+        <v>DRGs组数</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>重点监控高值医用耗材收入占比</v>
+        <v>住院患者基本药物使用率</v>
       </c>
       <c r="B10" t="str">
-        <v>合理用药</v>
-      </c>
-      <c r="C10" t="str">
         <v>百分比（%）</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>门诊患者基本药物处方占比</v>
+        <v>抗菌药物使用强度DDDs</v>
       </c>
       <c r="B11" t="str">
-        <v>合理用药</v>
-      </c>
-      <c r="C11" t="str">
-        <v>百分比（%）</v>
+        <v>DDD</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>博士研究生导师占比</v>
+        <v>重点监控高值医用耗材收入占比</v>
       </c>
       <c r="B12" t="str">
-        <v>地位影响</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>外省住院患者占比</v>
+        <v>门诊患者基本药物处方占比</v>
       </c>
       <c r="B13" t="str">
-        <v>地位影响</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>硕士研究生导师占比</v>
+        <v>博士研究生导师占比</v>
       </c>
       <c r="B14" t="str">
-        <v>地位影响</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>非医嘱离院率</v>
+        <v>外省住院患者占比</v>
       </c>
       <c r="B15" t="str">
-        <v>地位影响</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>每百名卫生技术人员科研成果转化金额</v>
-      </c>
-      <c r="B16" t="str">
-        <v>学科建设</v>
-      </c>
-      <c r="C16" t="str">
-        <v>元</v>
+        <v>是否为区卫健委重点专科</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>每百名卫生技术人员科研项目经费</v>
-      </c>
-      <c r="B17" t="str">
-        <v>学科建设</v>
-      </c>
-      <c r="C17" t="str">
-        <v>元</v>
+        <v>是否为区教育局或科技局重点学科或实验室</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>万元收入能耗占比</v>
-      </c>
-      <c r="B18" t="str">
-        <v>收支结构</v>
-      </c>
-      <c r="C18" t="str">
-        <v>吨标煤/万元</v>
+        <v>是否为国家卫健委临床重点专科</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>医疗服务收入占医疗收入比例</v>
-      </c>
-      <c r="B19" t="str">
-        <v>收支结构</v>
-      </c>
-      <c r="C19" t="str">
-        <v>百分比（%）</v>
+        <v>是否为市卫健委重点专科</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>收支结余</v>
-      </c>
-      <c r="B20" t="str">
-        <v>收支结构</v>
-      </c>
-      <c r="C20" t="str">
-        <v>百分比（%）</v>
+        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>平均住院日</v>
-      </c>
-      <c r="B21" t="str">
-        <v>服务流程</v>
-      </c>
-      <c r="C21" t="str">
-        <v>天</v>
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>I类切口手术部位感染率</v>
+        <v>硕士研究生导师占比</v>
       </c>
       <c r="B22" t="str">
-        <v>质量安全</v>
-      </c>
-      <c r="C22" t="str">
         <v>百分比（%）</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>低风险组病例死亡率</v>
+        <v>非医嘱离院率</v>
       </c>
       <c r="B23" t="str">
-        <v>质量安全</v>
-      </c>
-      <c r="C23" t="str">
         <v>百分比（%）</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>手术患者并发症发生率</v>
+        <v>每百名卫生技术人员科研成果转化金额</v>
       </c>
       <c r="B24" t="str">
-        <v>质量安全</v>
-      </c>
-      <c r="C24" t="str">
-        <v>百分比（%）</v>
+        <v>元</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>住院次均药品费用增幅</v>
+        <v>每百名卫生技术人员科研项目经费</v>
       </c>
       <c r="B25" t="str">
-        <v>费用控制</v>
-      </c>
-      <c r="C25" t="str">
-        <v>百分比（%）</v>
+        <v>元</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>住院次均费用增幅</v>
+        <v>万元收入能耗占比</v>
       </c>
       <c r="B26" t="str">
-        <v>费用控制</v>
-      </c>
-      <c r="C26" t="str">
-        <v>百分比（%）</v>
+        <v>吨标煤/万元</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>医疗收入增幅</v>
+        <v>医疗收入</v>
       </c>
       <c r="B27" t="str">
-        <v>费用控制</v>
-      </c>
-      <c r="C27" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>门诊次均药品费用增幅</v>
+        <v>医疗服务收入</v>
       </c>
       <c r="B28" t="str">
-        <v>费用控制</v>
-      </c>
-      <c r="C28" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
+        <v>医疗服务收入占医疗收入比例</v>
+      </c>
+      <c r="B29" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>收支结余</v>
+      </c>
+      <c r="B30" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>有效收入</v>
+      </c>
+      <c r="B31" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>平均住院日</v>
+      </c>
+      <c r="B32" t="str">
+        <v>天</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>I类切口手术部位感染率</v>
+      </c>
+      <c r="B33" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>低风险组病例死亡率</v>
+      </c>
+      <c r="B34" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>手术患者并发症发生率</v>
+      </c>
+      <c r="B35" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>住院次均药品费用增幅</v>
+      </c>
+      <c r="B36" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>住院次均费用增幅</v>
+      </c>
+      <c r="B37" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>医疗收入增幅</v>
+      </c>
+      <c r="B38" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>门诊次均药品费用增幅</v>
+      </c>
+      <c r="B39" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
         <v>门诊次均费用增幅</v>
       </c>
-      <c r="B29" t="str">
-        <v>费用控制</v>
-      </c>
-      <c r="C29" t="str">
-        <v>百分比（%）</v>
+      <c r="B40" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B41" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B42" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B43" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B44" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B45" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>核定床位数</v>
+      </c>
+      <c r="B46" t="str">
+        <v>张</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F29"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" customWidth="1" width="15"/>
+    <col min="2" max="2" customWidth="1" width="9"/>
+    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="4" max="4" customWidth="1" width="10"/>
+    <col min="5" max="5" customWidth="1" width="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>数据名</v>
+      </c>
+      <c r="B1" t="str">
+        <v>计量单位</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Y2020</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Y2019</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Y2018</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>医师人数</v>
+      </c>
+      <c r="B2" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>医护比</v>
+      </c>
+      <c r="B3" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>护士人数</v>
+      </c>
+      <c r="B4" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>出院患者四级手术比例</v>
+      </c>
+      <c r="B5" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>出院患者微创手术占比</v>
+      </c>
+      <c r="B6" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>出院患者手术占比</v>
+      </c>
+      <c r="B7" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>CMI值</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>DRGs组数</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>住院患者基本药物使用率</v>
+      </c>
+      <c r="B10" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>抗菌药物使用强度DDDs</v>
+      </c>
+      <c r="B11" t="str">
+        <v>DDD</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>重点监控高值医用耗材收入占比</v>
+      </c>
+      <c r="B12" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>门诊患者基本药物处方占比</v>
+      </c>
+      <c r="B13" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>博士研究生导师占比</v>
+      </c>
+      <c r="B14" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>外省住院患者占比</v>
+      </c>
+      <c r="B15" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>是否为区卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>是否为区教育局或科技局重点学科或实验室</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>是否为市卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>硕士研究生导师占比</v>
+      </c>
+      <c r="B22" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>非医嘱离院率</v>
+      </c>
+      <c r="B23" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>每百名卫生技术人员科研成果转化金额</v>
+      </c>
+      <c r="B24" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>每百名卫生技术人员科研项目经费</v>
+      </c>
+      <c r="B25" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>万元收入能耗占比</v>
+      </c>
+      <c r="B26" t="str">
+        <v>吨标煤/万元</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>医疗收入</v>
+      </c>
+      <c r="B27" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>医疗服务收入</v>
+      </c>
+      <c r="B28" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>医疗服务收入占医疗收入比例</v>
+      </c>
+      <c r="B29" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>收支结余</v>
+      </c>
+      <c r="B30" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>有效收入</v>
+      </c>
+      <c r="B31" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>平均住院日</v>
+      </c>
+      <c r="B32" t="str">
+        <v>天</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>I类切口手术部位感染率</v>
+      </c>
+      <c r="B33" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>低风险组病例死亡率</v>
+      </c>
+      <c r="B34" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>手术患者并发症发生率</v>
+      </c>
+      <c r="B35" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>住院次均药品费用增幅</v>
+      </c>
+      <c r="B36" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>住院次均费用增幅</v>
+      </c>
+      <c r="B37" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>医疗收入增幅</v>
+      </c>
+      <c r="B38" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>门诊次均药品费用增幅</v>
+      </c>
+      <c r="B39" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B40" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B41" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B42" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B43" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B44" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B45" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>核定床位数</v>
+      </c>
+      <c r="B46" t="str">
+        <v>张</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" customWidth="1" width="15"/>
+    <col min="2" max="2" customWidth="1" width="9"/>
+    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="4" max="4" customWidth="1" width="10"/>
+    <col min="5" max="5" customWidth="1" width="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>数据名</v>
+      </c>
+      <c r="B1" t="str">
+        <v>计量单位</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Y2020</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Y2019</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Y2018</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>医师人数</v>
+      </c>
+      <c r="B2" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>医护比</v>
+      </c>
+      <c r="B3" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>护士人数</v>
+      </c>
+      <c r="B4" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>出院患者四级手术比例</v>
+      </c>
+      <c r="B5" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>出院患者微创手术占比</v>
+      </c>
+      <c r="B6" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>出院患者手术占比</v>
+      </c>
+      <c r="B7" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>CMI值</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>DRGs组数</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>住院患者基本药物使用率</v>
+      </c>
+      <c r="B10" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>抗菌药物使用强度DDDs</v>
+      </c>
+      <c r="B11" t="str">
+        <v>DDD</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>重点监控高值医用耗材收入占比</v>
+      </c>
+      <c r="B12" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>门诊患者基本药物处方占比</v>
+      </c>
+      <c r="B13" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>博士研究生导师占比</v>
+      </c>
+      <c r="B14" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>外省住院患者占比</v>
+      </c>
+      <c r="B15" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>是否为区卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>是否为区教育局或科技局重点学科或实验室</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>是否为市卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>硕士研究生导师占比</v>
+      </c>
+      <c r="B22" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>非医嘱离院率</v>
+      </c>
+      <c r="B23" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>每百名卫生技术人员科研成果转化金额</v>
+      </c>
+      <c r="B24" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>每百名卫生技术人员科研项目经费</v>
+      </c>
+      <c r="B25" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>万元收入能耗占比</v>
+      </c>
+      <c r="B26" t="str">
+        <v>吨标煤/万元</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>医疗收入</v>
+      </c>
+      <c r="B27" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>医疗服务收入</v>
+      </c>
+      <c r="B28" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>医疗服务收入占医疗收入比例</v>
+      </c>
+      <c r="B29" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>收支结余</v>
+      </c>
+      <c r="B30" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>有效收入</v>
+      </c>
+      <c r="B31" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>平均住院日</v>
+      </c>
+      <c r="B32" t="str">
+        <v>天</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>I类切口手术部位感染率</v>
+      </c>
+      <c r="B33" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>低风险组病例死亡率</v>
+      </c>
+      <c r="B34" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>手术患者并发症发生率</v>
+      </c>
+      <c r="B35" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>住院次均药品费用增幅</v>
+      </c>
+      <c r="B36" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>住院次均费用增幅</v>
+      </c>
+      <c r="B37" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>医疗收入增幅</v>
+      </c>
+      <c r="B38" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>门诊次均药品费用增幅</v>
+      </c>
+      <c r="B39" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B40" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B41" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B42" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B43" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B44" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B45" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>核定床位数</v>
+      </c>
+      <c r="B46" t="str">
+        <v>张</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" customWidth="1" width="15"/>
+    <col min="2" max="2" customWidth="1" width="9"/>
+    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="4" max="4" customWidth="1" width="10"/>
+    <col min="5" max="5" customWidth="1" width="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>数据名</v>
+      </c>
+      <c r="B1" t="str">
+        <v>计量单位</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Y2020</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Y2019</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Y2018</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>医师人数</v>
+      </c>
+      <c r="B2" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>医护比</v>
+      </c>
+      <c r="B3" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>护士人数</v>
+      </c>
+      <c r="B4" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>出院患者四级手术比例</v>
+      </c>
+      <c r="B5" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>出院患者微创手术占比</v>
+      </c>
+      <c r="B6" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>出院患者手术占比</v>
+      </c>
+      <c r="B7" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>CMI值</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>DRGs组数</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>住院患者基本药物使用率</v>
+      </c>
+      <c r="B10" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>抗菌药物使用强度DDDs</v>
+      </c>
+      <c r="B11" t="str">
+        <v>DDD</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>重点监控高值医用耗材收入占比</v>
+      </c>
+      <c r="B12" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>门诊患者基本药物处方占比</v>
+      </c>
+      <c r="B13" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>博士研究生导师占比</v>
+      </c>
+      <c r="B14" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>外省住院患者占比</v>
+      </c>
+      <c r="B15" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>是否为区卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>是否为区教育局或科技局重点学科或实验室</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>是否为市卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>硕士研究生导师占比</v>
+      </c>
+      <c r="B22" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>非医嘱离院率</v>
+      </c>
+      <c r="B23" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>每百名卫生技术人员科研成果转化金额</v>
+      </c>
+      <c r="B24" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>每百名卫生技术人员科研项目经费</v>
+      </c>
+      <c r="B25" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>万元收入能耗占比</v>
+      </c>
+      <c r="B26" t="str">
+        <v>吨标煤/万元</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>医疗收入</v>
+      </c>
+      <c r="B27" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>医疗服务收入</v>
+      </c>
+      <c r="B28" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>医疗服务收入占医疗收入比例</v>
+      </c>
+      <c r="B29" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>收支结余</v>
+      </c>
+      <c r="B30" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>有效收入</v>
+      </c>
+      <c r="B31" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>平均住院日</v>
+      </c>
+      <c r="B32" t="str">
+        <v>天</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>I类切口手术部位感染率</v>
+      </c>
+      <c r="B33" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>低风险组病例死亡率</v>
+      </c>
+      <c r="B34" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>手术患者并发症发生率</v>
+      </c>
+      <c r="B35" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>住院次均药品费用增幅</v>
+      </c>
+      <c r="B36" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>住院次均费用增幅</v>
+      </c>
+      <c r="B37" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>医疗收入增幅</v>
+      </c>
+      <c r="B38" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>门诊次均药品费用增幅</v>
+      </c>
+      <c r="B39" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B40" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B41" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B42" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B43" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B44" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B45" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>核定床位数</v>
+      </c>
+      <c r="B46" t="str">
+        <v>张</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" customWidth="1" width="15"/>
+    <col min="2" max="2" customWidth="1" width="9"/>
+    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="4" max="4" customWidth="1" width="10"/>
+    <col min="5" max="5" customWidth="1" width="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>数据名</v>
+      </c>
+      <c r="B1" t="str">
+        <v>计量单位</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Y2020</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Y2019</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Y2018</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>医师人数</v>
+      </c>
+      <c r="B2" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>医护比</v>
+      </c>
+      <c r="B3" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>护士人数</v>
+      </c>
+      <c r="B4" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>出院患者四级手术比例</v>
+      </c>
+      <c r="B5" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>出院患者微创手术占比</v>
+      </c>
+      <c r="B6" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>出院患者手术占比</v>
+      </c>
+      <c r="B7" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>CMI值</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>DRGs组数</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>住院患者基本药物使用率</v>
+      </c>
+      <c r="B10" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>抗菌药物使用强度DDDs</v>
+      </c>
+      <c r="B11" t="str">
+        <v>DDD</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>重点监控高值医用耗材收入占比</v>
+      </c>
+      <c r="B12" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>门诊患者基本药物处方占比</v>
+      </c>
+      <c r="B13" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>博士研究生导师占比</v>
+      </c>
+      <c r="B14" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>外省住院患者占比</v>
+      </c>
+      <c r="B15" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>是否为区卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>是否为区教育局或科技局重点学科或实验室</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>是否为市卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>硕士研究生导师占比</v>
+      </c>
+      <c r="B22" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>非医嘱离院率</v>
+      </c>
+      <c r="B23" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>每百名卫生技术人员科研成果转化金额</v>
+      </c>
+      <c r="B24" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>每百名卫生技术人员科研项目经费</v>
+      </c>
+      <c r="B25" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>万元收入能耗占比</v>
+      </c>
+      <c r="B26" t="str">
+        <v>吨标煤/万元</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>医疗收入</v>
+      </c>
+      <c r="B27" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>医疗服务收入</v>
+      </c>
+      <c r="B28" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>医疗服务收入占医疗收入比例</v>
+      </c>
+      <c r="B29" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>收支结余</v>
+      </c>
+      <c r="B30" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>有效收入</v>
+      </c>
+      <c r="B31" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>平均住院日</v>
+      </c>
+      <c r="B32" t="str">
+        <v>天</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>I类切口手术部位感染率</v>
+      </c>
+      <c r="B33" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>低风险组病例死亡率</v>
+      </c>
+      <c r="B34" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>手术患者并发症发生率</v>
+      </c>
+      <c r="B35" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>住院次均药品费用增幅</v>
+      </c>
+      <c r="B36" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>住院次均费用增幅</v>
+      </c>
+      <c r="B37" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>医疗收入增幅</v>
+      </c>
+      <c r="B38" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>门诊次均药品费用增幅</v>
+      </c>
+      <c r="B39" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B40" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B41" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B42" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B43" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B44" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B45" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>核定床位数</v>
+      </c>
+      <c r="B46" t="str">
+        <v>张</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" customWidth="1" width="15"/>
+    <col min="2" max="2" customWidth="1" width="9"/>
+    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="4" max="4" customWidth="1" width="10"/>
+    <col min="5" max="5" customWidth="1" width="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>数据名</v>
+      </c>
+      <c r="B1" t="str">
+        <v>计量单位</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Y2020</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Y2019</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Y2018</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>医师人数</v>
+      </c>
+      <c r="B2" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>医护比</v>
+      </c>
+      <c r="B3" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>护士人数</v>
+      </c>
+      <c r="B4" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>出院患者四级手术比例</v>
+      </c>
+      <c r="B5" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>出院患者微创手术占比</v>
+      </c>
+      <c r="B6" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>出院患者手术占比</v>
+      </c>
+      <c r="B7" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>CMI值</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>DRGs组数</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>住院患者基本药物使用率</v>
+      </c>
+      <c r="B10" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>抗菌药物使用强度DDDs</v>
+      </c>
+      <c r="B11" t="str">
+        <v>DDD</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>重点监控高值医用耗材收入占比</v>
+      </c>
+      <c r="B12" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>门诊患者基本药物处方占比</v>
+      </c>
+      <c r="B13" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>博士研究生导师占比</v>
+      </c>
+      <c r="B14" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>外省住院患者占比</v>
+      </c>
+      <c r="B15" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>是否为区卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>是否为区教育局或科技局重点学科或实验室</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>是否为市卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>硕士研究生导师占比</v>
+      </c>
+      <c r="B22" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>非医嘱离院率</v>
+      </c>
+      <c r="B23" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>每百名卫生技术人员科研成果转化金额</v>
+      </c>
+      <c r="B24" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>每百名卫生技术人员科研项目经费</v>
+      </c>
+      <c r="B25" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>万元收入能耗占比</v>
+      </c>
+      <c r="B26" t="str">
+        <v>吨标煤/万元</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>医疗收入</v>
+      </c>
+      <c r="B27" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>医疗服务收入</v>
+      </c>
+      <c r="B28" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>医疗服务收入占医疗收入比例</v>
+      </c>
+      <c r="B29" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>收支结余</v>
+      </c>
+      <c r="B30" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>有效收入</v>
+      </c>
+      <c r="B31" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>平均住院日</v>
+      </c>
+      <c r="B32" t="str">
+        <v>天</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>I类切口手术部位感染率</v>
+      </c>
+      <c r="B33" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>低风险组病例死亡率</v>
+      </c>
+      <c r="B34" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>手术患者并发症发生率</v>
+      </c>
+      <c r="B35" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>住院次均药品费用增幅</v>
+      </c>
+      <c r="B36" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>住院次均费用增幅</v>
+      </c>
+      <c r="B37" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>医疗收入增幅</v>
+      </c>
+      <c r="B38" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>门诊次均药品费用增幅</v>
+      </c>
+      <c r="B39" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B40" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B41" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B42" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B43" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B44" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B45" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>核定床位数</v>
+      </c>
+      <c r="B46" t="str">
+        <v>张</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" customWidth="1" width="15"/>
+    <col min="2" max="2" customWidth="1" width="9"/>
+    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="4" max="4" customWidth="1" width="10"/>
+    <col min="5" max="5" customWidth="1" width="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>数据名</v>
+      </c>
+      <c r="B1" t="str">
+        <v>计量单位</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Y2020</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Y2019</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Y2018</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>医师人数</v>
+      </c>
+      <c r="B2" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>医护比</v>
+      </c>
+      <c r="B3" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>护士人数</v>
+      </c>
+      <c r="B4" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>出院患者四级手术比例</v>
+      </c>
+      <c r="B5" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>出院患者微创手术占比</v>
+      </c>
+      <c r="B6" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>出院患者手术占比</v>
+      </c>
+      <c r="B7" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>CMI值</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>DRGs组数</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>住院患者基本药物使用率</v>
+      </c>
+      <c r="B10" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>抗菌药物使用强度DDDs</v>
+      </c>
+      <c r="B11" t="str">
+        <v>DDD</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>重点监控高值医用耗材收入占比</v>
+      </c>
+      <c r="B12" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>门诊患者基本药物处方占比</v>
+      </c>
+      <c r="B13" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>博士研究生导师占比</v>
+      </c>
+      <c r="B14" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>外省住院患者占比</v>
+      </c>
+      <c r="B15" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>是否为区卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>是否为区教育局或科技局重点学科或实验室</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>是否为市卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>硕士研究生导师占比</v>
+      </c>
+      <c r="B22" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>非医嘱离院率</v>
+      </c>
+      <c r="B23" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>每百名卫生技术人员科研成果转化金额</v>
+      </c>
+      <c r="B24" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>每百名卫生技术人员科研项目经费</v>
+      </c>
+      <c r="B25" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>万元收入能耗占比</v>
+      </c>
+      <c r="B26" t="str">
+        <v>吨标煤/万元</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>医疗收入</v>
+      </c>
+      <c r="B27" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>医疗服务收入</v>
+      </c>
+      <c r="B28" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>医疗服务收入占医疗收入比例</v>
+      </c>
+      <c r="B29" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>收支结余</v>
+      </c>
+      <c r="B30" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>有效收入</v>
+      </c>
+      <c r="B31" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>平均住院日</v>
+      </c>
+      <c r="B32" t="str">
+        <v>天</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>I类切口手术部位感染率</v>
+      </c>
+      <c r="B33" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>低风险组病例死亡率</v>
+      </c>
+      <c r="B34" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>手术患者并发症发生率</v>
+      </c>
+      <c r="B35" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>住院次均药品费用增幅</v>
+      </c>
+      <c r="B36" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>住院次均费用增幅</v>
+      </c>
+      <c r="B37" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>医疗收入增幅</v>
+      </c>
+      <c r="B38" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>门诊次均药品费用增幅</v>
+      </c>
+      <c r="B39" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B40" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B41" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B42" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B43" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B44" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B45" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>核定床位数</v>
+      </c>
+      <c r="B46" t="str">
+        <v>张</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" customWidth="1" width="15"/>
+    <col min="2" max="2" customWidth="1" width="9"/>
+    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="4" max="4" customWidth="1" width="10"/>
+    <col min="5" max="5" customWidth="1" width="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>数据名</v>
+      </c>
+      <c r="B1" t="str">
+        <v>计量单位</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Y2020</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Y2019</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Y2018</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>医师人数</v>
+      </c>
+      <c r="B2" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>医护比</v>
+      </c>
+      <c r="B3" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>护士人数</v>
+      </c>
+      <c r="B4" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>出院患者四级手术比例</v>
+      </c>
+      <c r="B5" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>出院患者微创手术占比</v>
+      </c>
+      <c r="B6" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>出院患者手术占比</v>
+      </c>
+      <c r="B7" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>CMI值</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>DRGs组数</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>住院患者基本药物使用率</v>
+      </c>
+      <c r="B10" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>抗菌药物使用强度DDDs</v>
+      </c>
+      <c r="B11" t="str">
+        <v>DDD</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>重点监控高值医用耗材收入占比</v>
+      </c>
+      <c r="B12" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>门诊患者基本药物处方占比</v>
+      </c>
+      <c r="B13" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>博士研究生导师占比</v>
+      </c>
+      <c r="B14" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>外省住院患者占比</v>
+      </c>
+      <c r="B15" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>是否为区卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>是否为区教育局或科技局重点学科或实验室</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>是否为市卫健委重点专科</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>硕士研究生导师占比</v>
+      </c>
+      <c r="B22" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>非医嘱离院率</v>
+      </c>
+      <c r="B23" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>每百名卫生技术人员科研成果转化金额</v>
+      </c>
+      <c r="B24" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>每百名卫生技术人员科研项目经费</v>
+      </c>
+      <c r="B25" t="str">
+        <v>元</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>万元收入能耗占比</v>
+      </c>
+      <c r="B26" t="str">
+        <v>吨标煤/万元</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>医疗收入</v>
+      </c>
+      <c r="B27" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>医疗服务收入</v>
+      </c>
+      <c r="B28" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>医疗服务收入占医疗收入比例</v>
+      </c>
+      <c r="B29" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>收支结余</v>
+      </c>
+      <c r="B30" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>有效收入</v>
+      </c>
+      <c r="B31" t="str">
+        <v>万元</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>平均住院日</v>
+      </c>
+      <c r="B32" t="str">
+        <v>天</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>I类切口手术部位感染率</v>
+      </c>
+      <c r="B33" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>低风险组病例死亡率</v>
+      </c>
+      <c r="B34" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>手术患者并发症发生率</v>
+      </c>
+      <c r="B35" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>住院次均药品费用增幅</v>
+      </c>
+      <c r="B36" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>住院次均费用增幅</v>
+      </c>
+      <c r="B37" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>医疗收入增幅</v>
+      </c>
+      <c r="B38" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>门诊次均药品费用增幅</v>
+      </c>
+      <c r="B39" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B40" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B41" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B42" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B43" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B44" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B45" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>核定床位数</v>
+      </c>
+      <c r="B46" t="str">
+        <v>张</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cases/goodhostpital2021/指标填报表.xlsx
+++ b/cases/goodhostpital2021/指标填报表.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -496,7 +496,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>医院住院医师首次参加医师资格考试通过率</v>
+        <v>其他医院进修人员并返回原医院人员占比</v>
       </c>
       <c r="B11" t="str">
         <v>百分比（%）</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>医院接受其他医院进修并返回原医院独立工作人数占比</v>
+        <v>医联体内医院进修人员并返回原医院人员占比</v>
       </c>
       <c r="B12" t="str">
         <v>百分比（%）</v>
@@ -512,39 +512,39 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>下转患者人次数</v>
+        <v>医院住院医师首次参加医师资格考试通过率</v>
       </c>
       <c r="B13" t="str">
-        <v>人次</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>住院下转患者人次数</v>
+        <v>对口支援医院进修人员并返回原医院人员占比</v>
       </c>
       <c r="B14" t="str">
-        <v>人次</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>出院患者四级手术比例</v>
+        <v>下转患者人次数</v>
       </c>
       <c r="B15" t="str">
-        <v>百分比（%）</v>
+        <v>人次</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>出院患者微创手术占比</v>
+        <v>住院下转患者人次数</v>
       </c>
       <c r="B16" t="str">
-        <v>百分比（%）</v>
+        <v>人次</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>出院患者手术占比</v>
+        <v>出院患者四级手术比例</v>
       </c>
       <c r="B17" t="str">
         <v>百分比（%）</v>
@@ -552,41 +552,41 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>门急诊下转患者人次数</v>
+        <v>出院患者微创手术占比</v>
       </c>
       <c r="B18" t="str">
-        <v>人次</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>CMI值</v>
+        <v>出院患者手术占比</v>
+      </c>
+      <c r="B19" t="str">
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>DRGs组数</v>
+        <v>门急诊下转患者人次数</v>
+      </c>
+      <c r="B20" t="str">
+        <v>人次</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>住院患者基本药物使用率</v>
-      </c>
-      <c r="B21" t="str">
-        <v>百分比（%）</v>
+        <v>CMI值</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>国家组织药品集中采购中标药品金额占比</v>
-      </c>
-      <c r="B22" t="str">
-        <v>百分比（%）</v>
+        <v>DRGs组数</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>基本药物采购品种数占比</v>
+        <v>住院患者基本药物使用率</v>
       </c>
       <c r="B23" t="str">
         <v>百分比（%）</v>
@@ -594,15 +594,15 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>抗菌药物使用强度DDDs</v>
+        <v>国家组织药品集中采购中标药品金额占比</v>
       </c>
       <c r="B24" t="str">
-        <v>DDD</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>点评处方占处方总数的比例</v>
+        <v>基本药物采购品种数占比</v>
       </c>
       <c r="B25" t="str">
         <v>百分比（%）</v>
@@ -610,15 +610,15 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>重点监控高值医用耗材收入占比</v>
+        <v>抗菌药物使用强度DDDs</v>
       </c>
       <c r="B26" t="str">
-        <v>百分比（%）</v>
+        <v>DDD</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>门诊患者基本药物处方占比</v>
+        <v>点评处方占处方总数的比例</v>
       </c>
       <c r="B27" t="str">
         <v>百分比（%）</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>博士研究生导师占比</v>
+        <v>重点监控高值医用耗材收入占比</v>
       </c>
       <c r="B28" t="str">
         <v>百分比（%）</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>外省住院患者占比</v>
+        <v>门诊患者基本药物处方占比</v>
       </c>
       <c r="B29" t="str">
         <v>百分比（%）</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>硕士研究生导师占比</v>
+        <v>博士研究生导师占比</v>
       </c>
       <c r="B30" t="str">
         <v>百分比（%）</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>非医嘱离院率</v>
+        <v>外省住院患者占比</v>
       </c>
       <c r="B31" t="str">
         <v>百分比（%）</v>
@@ -658,79 +658,79 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>每百名卫生技术人员科研成果转化金额</v>
+        <v>硕士研究生导师占比</v>
       </c>
       <c r="B32" t="str">
-        <v>元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>每百名卫生技术人员科研项目经费</v>
+        <v>非医嘱离院率</v>
       </c>
       <c r="B33" t="str">
-        <v>元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>万元收入能耗占比</v>
+        <v>每百名卫生技术人员科研成果转化金额</v>
       </c>
       <c r="B34" t="str">
-        <v>吨标煤/万元</v>
+        <v>元</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>人员支出占业务支出比重</v>
+        <v>每百名卫生技术人员科研项目经费</v>
       </c>
       <c r="B35" t="str">
-        <v>百分比（%）</v>
+        <v>元</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>医疗收入</v>
+        <v>万元收入能耗占比</v>
       </c>
       <c r="B36" t="str">
-        <v>万元</v>
+        <v>吨标煤/万元</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>医疗服务收入</v>
+        <v>人员支出占业务支出比重</v>
       </c>
       <c r="B37" t="str">
-        <v>万元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>医疗服务收入占医疗收入比例</v>
+        <v>医疗收入</v>
       </c>
       <c r="B38" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>收支结余</v>
+        <v>医疗服务收入</v>
       </c>
       <c r="B39" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>有效收入</v>
+        <v>医疗服务收入占医疗收入比例</v>
       </c>
       <c r="B40" t="str">
-        <v>万元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>资产负债率</v>
+        <v>收支结余</v>
       </c>
       <c r="B41" t="str">
         <v>百分比（%）</v>
@@ -738,39 +738,39 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>平均住院日</v>
+        <v>有效收入</v>
       </c>
       <c r="B42" t="str">
-        <v>天</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>电子病历应用功能水平分级</v>
+        <v>资产负债率</v>
       </c>
       <c r="B43" t="str">
-        <v>级别</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>门诊患者平均预约诊疗率</v>
+        <v>平均住院日</v>
       </c>
       <c r="B44" t="str">
-        <v>百分比（%）</v>
+        <v>天</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>门诊患者预约后平均等待时间</v>
+        <v>电子病历应用功能水平分级</v>
       </c>
       <c r="B45" t="str">
-        <v>分钟</v>
+        <v>级别</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>I类切口手术部位感染率</v>
+        <v>门诊患者平均预约诊疗率</v>
       </c>
       <c r="B46" t="str">
         <v>百分比（%）</v>
@@ -778,15 +778,15 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>优质护理服务病房覆盖率</v>
+        <v>门诊患者预约后平均等待时间</v>
       </c>
       <c r="B47" t="str">
-        <v>百分比（%）</v>
+        <v>分钟</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>低风险组病例死亡率</v>
+        <v>I类切口手术部位感染率</v>
       </c>
       <c r="B48" t="str">
         <v>百分比（%）</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>手术患者并发症发生率</v>
+        <v>优质护理服务病房覆盖率</v>
       </c>
       <c r="B49" t="str">
         <v>百分比（%）</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>通过国家室间质量评价的临床检验项目数</v>
+        <v>低风险组病例死亡率</v>
       </c>
       <c r="B50" t="str">
         <v>百分比（%）</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>住院次均药品费用增幅</v>
+        <v>手术患者并发症发生率</v>
       </c>
       <c r="B51" t="str">
         <v>百分比（%）</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>住院次均费用增幅</v>
+        <v>通过国家室间质量评价的临床检验项目数</v>
       </c>
       <c r="B52" t="str">
         <v>百分比（%）</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>医疗收入增幅</v>
+        <v>住院次均药品费用增幅</v>
       </c>
       <c r="B53" t="str">
         <v>百分比（%）</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>门诊次均药品费用增幅</v>
+        <v>住院次均费用增幅</v>
       </c>
       <c r="B54" t="str">
         <v>百分比（%）</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>门诊次均费用增幅</v>
+        <v>医疗收入增幅</v>
       </c>
       <c r="B55" t="str">
         <v>百分比（%）</v>
@@ -850,55 +850,71 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>医师人数与开放床位数比</v>
+        <v>门诊次均药品费用增幅</v>
       </c>
       <c r="B56" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>卫生技术人员数与开放床位数比</v>
+        <v>门诊次均费用增幅</v>
       </c>
       <c r="B57" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>实际开放床位数</v>
+        <v>医师人数与开放床位数比</v>
       </c>
       <c r="B58" t="str">
-        <v>张</v>
+        <v>比值（1:X）</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>开放床位使用率</v>
+        <v>卫生技术人员数与开放床位数比</v>
       </c>
       <c r="B59" t="str">
-        <v>百分比（%）</v>
+        <v>比值（1:X）</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>护士人数与开放床位数比</v>
+        <v>实际开放床位数</v>
       </c>
       <c r="B60" t="str">
-        <v>比值（1:X）</v>
+        <v>张</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B61" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B62" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
         <v>核定床位数</v>
       </c>
-      <c r="B61" t="str">
+      <c r="B63" t="str">
         <v>张</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E63"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/cases/goodhostpital2021/指标填报表.xlsx
+++ b/cases/goodhostpital2021/指标填报表.xlsx
@@ -459,7 +459,7 @@
         <v>医院感染管理专职人员数与开放床位数比</v>
       </c>
       <c r="B6" t="str">
-        <v>百分比（%）</v>
+        <v>比值（1:X）</v>
       </c>
     </row>
     <row r="7">

--- a/cases/goodhostpital2021/指标填报表.xlsx
+++ b/cases/goodhostpital2021/指标填报表.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,13 +413,13 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>Y2021</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2019</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Y2018</v>
       </c>
     </row>
     <row r="2">
@@ -496,15 +496,15 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>其他医院进修人员并返回原医院人员占比</v>
+        <v>临床带教教师和指导医师接受教育教学培训占比</v>
       </c>
       <c r="B11" t="str">
-        <v>百分比（%）</v>
+        <v>人</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>医联体内医院进修人员并返回原医院人员占比</v>
+        <v>其他医院进修人员并返回原医院人员占比</v>
       </c>
       <c r="B12" t="str">
         <v>百分比（%）</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>医院住院医师首次参加医师资格考试通过率</v>
+        <v>医联体内医院进修人员并返回原医院人员占比</v>
       </c>
       <c r="B13" t="str">
         <v>百分比（%）</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>对口支援医院进修人员并返回原医院人员占比</v>
+        <v>医院住院医师首次参加医师资格考试通过率</v>
       </c>
       <c r="B14" t="str">
         <v>百分比（%）</v>
@@ -528,31 +528,31 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>下转患者人次数</v>
+        <v>医院医学教育专职管理人员数与与医院教育培训学员数之比</v>
       </c>
       <c r="B15" t="str">
-        <v>人次</v>
+        <v>篇</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>住院下转患者人次数</v>
+        <v>医院在医学人才培养方面的经费投入占比</v>
       </c>
       <c r="B16" t="str">
-        <v>人次</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>出院患者四级手术比例</v>
+        <v>发表教学文章数与卫生技术人员数之比</v>
       </c>
       <c r="B17" t="str">
-        <v>百分比（%）</v>
+        <v>比值（1:X）</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>出院患者微创手术占比</v>
+        <v>对口支援医院进修人员并返回原医院人员占比</v>
       </c>
       <c r="B18" t="str">
         <v>百分比（%）</v>
@@ -560,15 +560,15 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>出院患者手术占比</v>
+        <v>下转患者人次数</v>
       </c>
       <c r="B19" t="str">
-        <v>百分比（%）</v>
+        <v>人次</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>门急诊下转患者人次数</v>
+        <v>住院下转患者人次数</v>
       </c>
       <c r="B20" t="str">
         <v>人次</v>
@@ -576,17 +576,23 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>CMI值</v>
+        <v>出院患者四级手术比例</v>
+      </c>
+      <c r="B21" t="str">
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>DRGs组数</v>
+        <v>出院患者微创手术占比</v>
+      </c>
+      <c r="B22" t="str">
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>住院患者基本药物使用率</v>
+        <v>出院患者手术占比</v>
       </c>
       <c r="B23" t="str">
         <v>百分比（%）</v>
@@ -594,31 +600,25 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>国家组织药品集中采购中标药品金额占比</v>
+        <v>门急诊下转患者人次数</v>
       </c>
       <c r="B24" t="str">
-        <v>百分比（%）</v>
+        <v>人次</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>基本药物采购品种数占比</v>
-      </c>
-      <c r="B25" t="str">
-        <v>百分比（%）</v>
+        <v>CMI值</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>抗菌药物使用强度DDDs</v>
-      </c>
-      <c r="B26" t="str">
-        <v>DDD</v>
+        <v>DRGs组数</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>点评处方占处方总数的比例</v>
+        <v>住院患者基本药物使用率</v>
       </c>
       <c r="B27" t="str">
         <v>百分比（%）</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>重点监控高值医用耗材收入占比</v>
+        <v>国家组织药品集中采购中标药品金额占比</v>
       </c>
       <c r="B28" t="str">
         <v>百分比（%）</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>门诊患者基本药物处方占比</v>
+        <v>基本药物采购品种数占比</v>
       </c>
       <c r="B29" t="str">
         <v>百分比（%）</v>
@@ -642,15 +642,15 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>博士研究生导师占比</v>
+        <v>抗菌药物使用强度DDDs</v>
       </c>
       <c r="B30" t="str">
-        <v>百分比（%）</v>
+        <v>DDD</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>外省住院患者占比</v>
+        <v>点评处方占处方总数的比例</v>
       </c>
       <c r="B31" t="str">
         <v>百分比（%）</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>硕士研究生导师占比</v>
+        <v>重点监控高值医用耗材收入占比</v>
       </c>
       <c r="B32" t="str">
         <v>百分比（%）</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>非医嘱离院率</v>
+        <v>门诊患者基本药物处方占比</v>
       </c>
       <c r="B33" t="str">
         <v>百分比（%）</v>
@@ -674,31 +674,31 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>每百名卫生技术人员科研成果转化金额</v>
+        <v>博士研究生导师占比</v>
       </c>
       <c r="B34" t="str">
-        <v>元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>每百名卫生技术人员科研项目经费</v>
+        <v>外省住院患者占比</v>
       </c>
       <c r="B35" t="str">
-        <v>元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>万元收入能耗占比</v>
+        <v>硕士研究生导师占比</v>
       </c>
       <c r="B36" t="str">
-        <v>吨标煤/万元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>人员支出占业务支出比重</v>
+        <v>非医嘱离院率</v>
       </c>
       <c r="B37" t="str">
         <v>百分比（%）</v>
@@ -706,31 +706,31 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>医疗收入</v>
+        <v>每百名卫生技术人员科研成果转化金额</v>
       </c>
       <c r="B38" t="str">
-        <v>万元</v>
+        <v>元</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>医疗服务收入</v>
+        <v>每百名卫生技术人员科研项目经费</v>
       </c>
       <c r="B39" t="str">
-        <v>万元</v>
+        <v>元</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>医疗服务收入占医疗收入比例</v>
+        <v>万元收入能耗占比</v>
       </c>
       <c r="B40" t="str">
-        <v>百分比（%）</v>
+        <v>吨标煤/万元</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>收支结余</v>
+        <v>人员支出占业务支出比重</v>
       </c>
       <c r="B41" t="str">
         <v>百分比（%）</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>有效收入</v>
+        <v>医疗收入</v>
       </c>
       <c r="B42" t="str">
         <v>万元</v>
@@ -746,63 +746,63 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>资产负债率</v>
+        <v>医疗服务收入</v>
       </c>
       <c r="B43" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>平均住院日</v>
+        <v>医疗服务收入占医疗收入比例</v>
       </c>
       <c r="B44" t="str">
-        <v>天</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>电子病历应用功能水平分级</v>
+        <v>收支结余</v>
       </c>
       <c r="B45" t="str">
-        <v>级别</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>门诊患者平均预约诊疗率</v>
+        <v>有效收入</v>
       </c>
       <c r="B46" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>门诊患者预约后平均等待时间</v>
+        <v>资产负债率</v>
       </c>
       <c r="B47" t="str">
-        <v>分钟</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>I类切口手术部位感染率</v>
+        <v>平均住院日</v>
       </c>
       <c r="B48" t="str">
-        <v>百分比（%）</v>
+        <v>天</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>优质护理服务病房覆盖率</v>
+        <v>电子病历应用功能水平分级</v>
       </c>
       <c r="B49" t="str">
-        <v>百分比（%）</v>
+        <v>级别</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>低风险组病例死亡率</v>
+        <v>门诊患者平均预约诊疗率</v>
       </c>
       <c r="B50" t="str">
         <v>百分比（%）</v>
@@ -810,15 +810,15 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>手术患者并发症发生率</v>
+        <v>门诊患者预约后平均等待时间</v>
       </c>
       <c r="B51" t="str">
-        <v>百分比（%）</v>
+        <v>分钟</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>通过国家室间质量评价的临床检验项目数</v>
+        <v>I类切口手术部位感染率</v>
       </c>
       <c r="B52" t="str">
         <v>百分比（%）</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>住院次均药品费用增幅</v>
+        <v>优质护理服务病房覆盖率</v>
       </c>
       <c r="B53" t="str">
         <v>百分比（%）</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>住院次均费用增幅</v>
+        <v>低风险组病例死亡率</v>
       </c>
       <c r="B54" t="str">
         <v>百分比（%）</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>医疗收入增幅</v>
+        <v>手术患者并发症发生率</v>
       </c>
       <c r="B55" t="str">
         <v>百分比（%）</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>门诊次均药品费用增幅</v>
+        <v>通过国家室间质量评价的临床检验项目数</v>
       </c>
       <c r="B56" t="str">
         <v>百分比（%）</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>门诊次均费用增幅</v>
+        <v>住院次均药品费用增幅</v>
       </c>
       <c r="B57" t="str">
         <v>百分比（%）</v>
@@ -866,31 +866,31 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>医师人数与开放床位数比</v>
+        <v>住院次均费用增幅</v>
       </c>
       <c r="B58" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>卫生技术人员数与开放床位数比</v>
+        <v>医疗收入增幅</v>
       </c>
       <c r="B59" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>实际开放床位数</v>
+        <v>门诊次均药品费用增幅</v>
       </c>
       <c r="B60" t="str">
-        <v>张</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>开放床位使用率</v>
+        <v>门诊次均费用增幅</v>
       </c>
       <c r="B61" t="str">
         <v>百分比（%）</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>护士人数与开放床位数比</v>
+        <v>医师人数与开放床位数比</v>
       </c>
       <c r="B62" t="str">
         <v>比值（1:X）</v>
@@ -906,15 +906,47 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B63" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B64" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B65" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B66" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
         <v>核定床位数</v>
       </c>
-      <c r="B63" t="str">
+      <c r="B67" t="str">
         <v>张</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E63"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E67"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -941,13 +973,13 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>Y2021</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2019</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Y2018</v>
       </c>
     </row>
     <row r="2">
@@ -1315,13 +1347,13 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>Y2021</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2019</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Y2018</v>
       </c>
     </row>
     <row r="2">
@@ -1689,13 +1721,13 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>Y2021</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2019</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Y2018</v>
       </c>
     </row>
     <row r="2">
@@ -2063,13 +2095,13 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>Y2021</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2019</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Y2018</v>
       </c>
     </row>
     <row r="2">
@@ -2437,13 +2469,13 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>Y2021</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2019</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Y2018</v>
       </c>
     </row>
     <row r="2">
@@ -2811,13 +2843,13 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>Y2021</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2019</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Y2018</v>
       </c>
     </row>
     <row r="2">
@@ -3185,13 +3217,13 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>Y2021</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2019</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Y2018</v>
       </c>
     </row>
     <row r="2">
@@ -3559,13 +3591,13 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>Y2021</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2019</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Y2018</v>
       </c>
     </row>
     <row r="2">
@@ -3933,13 +3965,13 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>Y2021</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2019</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Y2018</v>
       </c>
     </row>
     <row r="2">
@@ -4307,13 +4339,13 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>Y2021</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2019</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Y2018</v>
       </c>
     </row>
     <row r="2">
@@ -4681,13 +4713,13 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>Y2021</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2019</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Y2018</v>
       </c>
     </row>
     <row r="2">
@@ -5055,13 +5087,13 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>Y2021</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2019</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Y2018</v>
       </c>
     </row>
     <row r="2">
@@ -5429,13 +5461,13 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>Y2021</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2019</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Y2018</v>
       </c>
     </row>
     <row r="2">
@@ -5803,13 +5835,13 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>Y2021</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2019</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Y2018</v>
       </c>
     </row>
     <row r="2">
@@ -6177,13 +6209,13 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>Y2021</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2019</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Y2018</v>
       </c>
     </row>
     <row r="2">
@@ -6551,13 +6583,13 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>Y2021</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2019</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Y2018</v>
       </c>
     </row>
     <row r="2">
@@ -6925,13 +6957,13 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>Y2021</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2019</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Y2018</v>
       </c>
     </row>
     <row r="2">
@@ -7299,13 +7331,13 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>Y2021</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2019</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Y2018</v>
       </c>
     </row>
     <row r="2">
